--- a/backend/data/comparison_summary.xlsx
+++ b/backend/data/comparison_summary.xlsx
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.797</v>
+        <v>15.816</v>
       </c>
       <c r="C5" t="n">
-        <v>19.899</v>
+        <v>20.002</v>
       </c>
       <c r="D5" t="n">
-        <v>0.038</v>
+        <v>0.028</v>
       </c>
       <c r="E5" t="n">
-        <v>1512.88</v>
+        <v>1500.16</v>
       </c>
     </row>
   </sheetData>
